--- a/NegoshoeInventory/Importer/Upload_Template_N.xlsx
+++ b/NegoshoeInventory/Importer/Upload_Template_N.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
   <si>
     <t>ItemName</t>
   </si>
@@ -207,6 +207,27 @@
   </si>
   <si>
     <t>Jordan Quai54</t>
+  </si>
+  <si>
+    <t>s-l16001.jpg</t>
+  </si>
+  <si>
+    <t>s-l16002.jpg</t>
+  </si>
+  <si>
+    <t>s-l16003.jpg</t>
+  </si>
+  <si>
+    <t>s-l16004.jpg</t>
+  </si>
+  <si>
+    <t>s-l16005.jpg</t>
+  </si>
+  <si>
+    <t>s-l16006.jpg</t>
+  </si>
+  <si>
+    <t>s-l16007.jpg</t>
   </si>
 </sst>
 </file>
@@ -590,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,6 +622,7 @@
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -643,6 +665,12 @@
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -657,6 +685,12 @@
       <c r="D3">
         <v>2</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -668,6 +702,12 @@
       <c r="D4">
         <v>2</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -679,6 +719,12 @@
       <c r="D5">
         <v>2</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -690,6 +736,12 @@
       <c r="D6">
         <v>1</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -704,6 +756,12 @@
       <c r="D7">
         <v>3</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -718,6 +776,12 @@
       <c r="D8">
         <v>2</v>
       </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -729,6 +793,12 @@
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -740,6 +810,12 @@
       <c r="D10">
         <v>1</v>
       </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -751,6 +827,12 @@
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -762,6 +844,12 @@
       <c r="D12">
         <v>1</v>
       </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -773,6 +861,12 @@
       <c r="D13">
         <v>1</v>
       </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -784,6 +878,12 @@
       <c r="D14">
         <v>1</v>
       </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -795,6 +895,12 @@
       <c r="D15">
         <v>1</v>
       </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -806,8 +912,14 @@
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -817,8 +929,14 @@
       <c r="D17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -828,8 +946,14 @@
       <c r="D18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
@@ -839,8 +963,14 @@
       <c r="D19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
@@ -850,8 +980,14 @@
       <c r="D20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -861,8 +997,14 @@
       <c r="D21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
@@ -875,8 +1017,14 @@
       <c r="D22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
@@ -886,8 +1034,14 @@
       <c r="D23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -897,8 +1051,14 @@
       <c r="D24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -908,8 +1068,14 @@
       <c r="D25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
@@ -919,8 +1085,14 @@
       <c r="D26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
@@ -930,8 +1102,14 @@
       <c r="D27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
@@ -941,8 +1119,14 @@
       <c r="D28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -952,8 +1136,14 @@
       <c r="D29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -963,8 +1153,14 @@
       <c r="D30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
@@ -974,8 +1170,14 @@
       <c r="D31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
@@ -985,8 +1187,14 @@
       <c r="D32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
@@ -999,8 +1207,14 @@
       <c r="D33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>43</v>
       </c>
@@ -1010,8 +1224,14 @@
       <c r="D34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>44</v>
       </c>
@@ -1021,8 +1241,14 @@
       <c r="D35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
@@ -1032,8 +1258,14 @@
       <c r="D36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>50</v>
       </c>
@@ -1043,8 +1275,14 @@
       <c r="D37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
@@ -1054,8 +1292,14 @@
       <c r="D38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>49</v>
       </c>
@@ -1068,8 +1312,14 @@
       <c r="D39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>51</v>
       </c>
@@ -1079,8 +1329,14 @@
       <c r="D40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>52</v>
       </c>
@@ -1090,8 +1346,14 @@
       <c r="D41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -1101,8 +1363,14 @@
       <c r="D42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>54</v>
       </c>
@@ -1112,8 +1380,14 @@
       <c r="D43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>55</v>
       </c>
@@ -1123,8 +1397,14 @@
       <c r="D44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>56</v>
       </c>
@@ -1134,8 +1414,14 @@
       <c r="D45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>57</v>
       </c>
@@ -1145,8 +1431,14 @@
       <c r="D46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>58</v>
       </c>
@@ -1156,8 +1448,14 @@
       <c r="D47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>59</v>
       </c>
@@ -1167,8 +1465,14 @@
       <c r="D48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>60</v>
       </c>
@@ -1178,8 +1482,14 @@
       <c r="D49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>61</v>
       </c>
@@ -1188,6 +1498,12 @@
       </c>
       <c r="D50">
         <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/NegoshoeInventory/Importer/Upload_Template_N.xlsx
+++ b/NegoshoeInventory/Importer/Upload_Template_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vd2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vd2\Source\Repos\negoshoe-inventory\NegoshoeInventory\Importer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="74">
   <si>
     <t>ItemName</t>
   </si>
@@ -228,6 +228,21 @@
   </si>
   <si>
     <t>s-l16007.jpg</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -609,906 +624,1210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
+      <c r="C3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
+      <c r="C4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
+      <c r="C5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="C6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
+      <c r="C8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
+      <c r="C9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
+      <c r="C10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
+      <c r="C11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
+      <c r="C12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
+      <c r="C14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
+      <c r="C15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
+      <c r="C16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
+      <c r="C18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
+      <c r="C19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
+      <c r="C20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21">
         <v>3</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>3</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
+      <c r="C22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
+      <c r="C23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
+      <c r="C24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
+      <c r="C25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
+      <c r="C26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
+      <c r="C27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
+      <c r="C28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
+      <c r="C29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
+      <c r="C30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
+      <c r="C31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
+      <c r="C32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
+      <c r="C33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
+      <c r="C34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
+      <c r="C35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
+      <c r="C36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
+      <c r="C37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
+      <c r="C38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
+      <c r="C39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
+      <c r="C40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
+      <c r="C41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
+      <c r="C42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
+      <c r="C43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
+      <c r="C44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
+      <c r="C45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
+      <c r="C46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
+      <c r="C47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
+      <c r="C48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
+      <c r="C49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
+      <c r="C50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D11:D14" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
